--- a/dist/GUI/CPR_100221_20210210-114741/Ratios_add.xlsx
+++ b/dist/GUI/CPR_100221_20210210-114741/Ratios_add.xlsx
@@ -439,7 +439,7 @@
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" customWidth="1"/>
@@ -561,10 +561,10 @@
         <v>0.1671898113278987</v>
       </c>
       <c r="M2">
-        <v>1.324584322994288</v>
+        <v>1.324582333196705</v>
       </c>
       <c r="N2">
-        <v>0.3409000047751028</v>
+        <v>0.3409005173764483</v>
       </c>
       <c r="O2">
         <v>0.1838227800153526</v>
@@ -573,10 +573,10 @@
         <v>0.4667233759767803</v>
       </c>
       <c r="Q2">
-        <v>0.2425652817721227</v>
+        <v>0.2425649162228197</v>
       </c>
       <c r="R2">
-        <v>0.32695342528132</v>
+        <v>0.3269535019506545</v>
       </c>
       <c r="S2">
         <v>2.640895525347035E-05</v>
@@ -635,10 +635,10 @@
         <v>0.0478513419537915</v>
       </c>
       <c r="M3">
-        <v>0.0032773447034385</v>
+        <v>0.003275356462361479</v>
       </c>
       <c r="N3">
-        <v>2.118638886166868</v>
+        <v>2.119924914268915</v>
       </c>
       <c r="O3">
         <v>0.09736895715369355</v>
@@ -647,10 +647,10 @@
         <v>0.198702951628399</v>
       </c>
       <c r="Q3">
-        <v>0.0003205476770501719</v>
+        <v>0.0003203543385384721</v>
       </c>
       <c r="R3">
-        <v>2.018904390208913</v>
+        <v>2.020137790100577</v>
       </c>
       <c r="S3">
         <v>1.394453890663527E-05</v>
@@ -709,10 +709,10 @@
         <v>0.18475194609784</v>
       </c>
       <c r="M4">
-        <v>1.323333400550307</v>
+        <v>1.32333141153102</v>
       </c>
       <c r="N4">
-        <v>0.2852824024570378</v>
+        <v>0.2852828322387429</v>
       </c>
       <c r="O4">
         <v>0.1830110572045474</v>
@@ -721,10 +721,10 @@
         <v>0.413548279079566</v>
       </c>
       <c r="Q4">
-        <v>0.2414264833758018</v>
+        <v>0.2414261194212968</v>
       </c>
       <c r="R4">
-        <v>0.3636863292778187</v>
+        <v>0.3636864051450315</v>
       </c>
       <c r="S4">
         <v>2.660833696627664E-05</v>
@@ -783,10 +783,10 @@
         <v>0.04339282011123644</v>
       </c>
       <c r="M5">
-        <v>0.002813531792510626</v>
+        <v>0.002811543931097559</v>
       </c>
       <c r="N5">
-        <v>1.997515402124657</v>
+        <v>1.998927788018716</v>
       </c>
       <c r="O5">
         <v>0.1814969380218558</v>
@@ -795,10 +795,10 @@
         <v>0.3098441651051433</v>
       </c>
       <c r="Q5">
-        <v>0.0005110649611273431</v>
+        <v>0.0005106998173672897</v>
       </c>
       <c r="R5">
-        <v>2.008083298503632</v>
+        <v>2.009498076031131</v>
       </c>
       <c r="S5">
         <v>1.540968460039109E-05</v>
@@ -857,10 +857,10 @@
         <v>0.1797637951548278</v>
       </c>
       <c r="M6">
-        <v>1.322200220349557</v>
+        <v>1.32219823094449</v>
       </c>
       <c r="N6">
-        <v>0.2209736404250356</v>
+        <v>0.2209739728222805</v>
       </c>
       <c r="O6">
         <v>0.1811370290506207</v>
@@ -869,10 +869,10 @@
         <v>0.3803973243849685</v>
       </c>
       <c r="Q6">
-        <v>0.239667028579765</v>
+        <v>0.2396666663667818</v>
       </c>
       <c r="R6">
-        <v>0.3656704039744018</v>
+        <v>0.3656704898636055</v>
       </c>
       <c r="S6">
         <v>2.609006239719356E-05</v>
@@ -931,10 +931,10 @@
         <v>0.04774826555039949</v>
       </c>
       <c r="M7">
-        <v>0.003654896968490784</v>
+        <v>0.003652908602329808</v>
       </c>
       <c r="N7">
-        <v>1.936336394570503</v>
+        <v>1.937390319586194</v>
       </c>
       <c r="O7">
         <v>0.1804577480367137</v>
@@ -943,10 +943,10 @@
         <v>0.3852339957965794</v>
       </c>
       <c r="Q7">
-        <v>0.0006636456736421185</v>
+        <v>0.0006632840911626782</v>
       </c>
       <c r="R7">
-        <v>1.939710498005037</v>
+        <v>1.940759177824897</v>
       </c>
       <c r="S7">
         <v>1.327917639601461E-05</v>
@@ -1005,10 +1005,10 @@
         <v>0.133246697787821</v>
       </c>
       <c r="M8">
-        <v>1.319624247369094</v>
+        <v>1.319622257679337</v>
       </c>
       <c r="N8">
-        <v>0.2325179417830537</v>
+        <v>0.2325182917524557</v>
       </c>
       <c r="O8">
         <v>0.1803459092003151</v>
@@ -1017,10 +1017,10 @@
         <v>0.4297868006133961</v>
       </c>
       <c r="Q8">
-        <v>0.2382822709433621</v>
+        <v>0.2382819122323587</v>
       </c>
       <c r="R8">
-        <v>0.3670470559826737</v>
+        <v>0.3670471312898169</v>
       </c>
       <c r="S8">
         <v>2.63042660901376E-05</v>
@@ -1079,10 +1079,10 @@
         <v>0.03310481896892375</v>
       </c>
       <c r="M9">
-        <v>0.003181029449791472</v>
+        <v>0.003179041188988946</v>
       </c>
       <c r="N9">
-        <v>2.136376476475425</v>
+        <v>2.1377126504212</v>
       </c>
       <c r="O9">
         <v>0.1138978916414677</v>
@@ -1091,10 +1091,10 @@
         <v>0.2496545418348033</v>
       </c>
       <c r="Q9">
-        <v>0.0003632314580999754</v>
+        <v>0.0003630052528144143</v>
       </c>
       <c r="R9">
-        <v>2.136083829830561</v>
+        <v>2.137402394568339</v>
       </c>
       <c r="S9">
         <v>1.33896446999425E-05</v>
@@ -1153,10 +1153,10 @@
         <v>0.1928091712527066</v>
       </c>
       <c r="M10">
-        <v>1.317301608640938</v>
+        <v>1.317299619129553</v>
       </c>
       <c r="N10">
-        <v>0.2453966400949428</v>
+        <v>0.2453970110927369</v>
       </c>
       <c r="O10">
         <v>0.1802190851860907</v>
@@ -1165,10 +1165,10 @@
         <v>0.4150400840242146</v>
       </c>
       <c r="Q10">
-        <v>0.2367855739726799</v>
+        <v>0.2367852110607417</v>
       </c>
       <c r="R10">
-        <v>0.4260307905930146</v>
+        <v>0.4260308980406651</v>
       </c>
       <c r="S10">
         <v>2.613379964262225E-05</v>
@@ -1227,10 +1227,10 @@
         <v>0.04255887954161741</v>
       </c>
       <c r="M11">
-        <v>0.003398957315546118</v>
+        <v>0.003396968616918185</v>
       </c>
       <c r="N11">
-        <v>2.262906505247554</v>
+        <v>2.26423125468954</v>
       </c>
       <c r="O11">
         <v>0.2062557903627206</v>
@@ -1239,10 +1239,10 @@
         <v>0.36315465493538</v>
       </c>
       <c r="Q11">
-        <v>0.0007053640786390493</v>
+        <v>0.0007049510064866325</v>
       </c>
       <c r="R11">
-        <v>2.296267033740035</v>
+        <v>2.297564997300947</v>
       </c>
       <c r="S11">
         <v>1.603818917493487E-05</v>
@@ -1301,10 +1301,10 @@
         <v>0.1504506050698995</v>
       </c>
       <c r="M12">
-        <v>1.316501864523344</v>
+        <v>1.316499874313986</v>
       </c>
       <c r="N12">
-        <v>0.2613398733591065</v>
+        <v>0.2613402682972835</v>
       </c>
       <c r="O12">
         <v>0.180885832906079</v>
@@ -1313,10 +1313,10 @@
         <v>0.4128124328530886</v>
       </c>
       <c r="Q12">
-        <v>0.238338541222346</v>
+        <v>0.2383381790433829</v>
       </c>
       <c r="R12">
-        <v>0.4768269205556759</v>
+        <v>0.4768270850367027</v>
       </c>
       <c r="S12">
         <v>2.643919658346947E-05</v>
